--- a/data/fact_data/Jalna/Jalna_Sep_19.xlsx
+++ b/data/fact_data/Jalna/Jalna_Sep_19.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nitin.karmuse/Desktop/win_medicare/data/fact_data/Jalna/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{503E1874-719C-7149-9710-D8F4CB060049}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29F1D677-7B4A-264A-911C-FD01911FE6A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16140" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -18,6 +18,9 @@
     <sheet name="Shrikrupa_Sep_19" sheetId="5" r:id="rId3"/>
     <sheet name="Shivkrupa_Sep_19" sheetId="6" r:id="rId4"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">Shivkrupa_Sep_19!$A$1:$I$69</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -35,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1128" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1128" uniqueCount="85">
   <si>
     <t>Betadine Vag. Tab 10's</t>
   </si>
@@ -287,6 +290,9 @@
   </si>
   <si>
     <t>inv</t>
+  </si>
+  <si>
+    <t>Betadine Solution 100ml  10%</t>
   </si>
 </sst>
 </file>
@@ -7676,7 +7682,7 @@
   <dimension ref="A1:I71"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:C1"/>
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13"/>
@@ -8177,7 +8183,7 @@
     </row>
     <row r="18" spans="1:9" ht="18">
       <c r="A18" s="4" t="s">
-        <v>46</v>
+        <v>84</v>
       </c>
       <c r="B18" s="3">
         <v>267</v>
@@ -9261,7 +9267,7 @@
       </c>
     </row>
     <row r="57" spans="1:9" ht="18">
-      <c r="A57" s="7" t="s">
+      <c r="A57" s="4" t="s">
         <v>71</v>
       </c>
       <c r="B57" s="3">
